--- a/product_in_stock.xlsx
+++ b/product_in_stock.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>номер товара</t>
-  </si>
-  <si>
     <t>количество товара</t>
   </si>
   <si>
     <t>цена</t>
+  </si>
+  <si>
+    <t>номер товара</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -378,13 +378,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -392,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>1500</v>
